--- a/medicine/Enfance/Carol_Goodman/Carol_Goodman.xlsx
+++ b/medicine/Enfance/Carol_Goodman/Carol_Goodman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carol Goodman, née le 10 février 1959 à Philadelphie (Pennsylvanie), est une femmes de lettres américaine, auteure de roman policier, de thriller, de roman gothique et d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carol Goodman fait des études supérieures au Vassar College, où elle obtient un diplôme en latin. Après ses études, elle devient professeur de création littéraire au State University of New York at New Paltz (en)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carol Goodman fait des études supérieures au Vassar College, où elle obtient un diplôme en latin. Après ses études, elle devient professeur de création littéraire au State University of New York at New Paltz (en).
 En 2002, elle publie son premier roman, L'Appel du lac (The Lake of Dead Languages). Avec son deuxième roman, The Seduction of Water, elle est lauréate du prix Hammett 2003 du meilleur roman pour adolescents.
 En 2010, avec son mari Lee Slominsky, elle commence une série de trois romans signée Lee Carroll. Elle utilise également le pseudonyme Juliet Dark pour la série Fairwick Chronicles.
 </t>
@@ -546,17 +560,101 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Carol Goodman
-Série Fairwick Chronicles
-Incubus (2011)
+          <t>Romans signés Carol Goodman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Fairwick Chronicles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Incubus (2011)
 Water Witch (2012)
-Dark Possession (2012)
-Série Blythewood
-Blythewood (2013)
+Dark Possession (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Carol Goodman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Blythewood</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blythewood (2013)
 Ravencliffe (2014)
-Hawthorn (2015)
-Autres romans
-The Lake of Dead Languages (2002) Publié en français sous le titre L'Appel du lac, traduit par Catherine Ludet, Paris, France Loisirs, 2005  (ISBN 2-7441-8184-6) ; réédition, Paris, Éditions de l'Archipel, 2006  (ISBN 2-84187-809-0) ; réédition, Paris, J'ai lu no 8568, 2008  (ISBN 978-2-290-00393-0)
+Hawthorn (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Carol Goodman</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Lake of Dead Languages (2002) Publié en français sous le titre L'Appel du lac, traduit par Catherine Ludet, Paris, France Loisirs, 2005  (ISBN 2-7441-8184-6) ; réédition, Paris, Éditions de l'Archipel, 2006  (ISBN 2-84187-809-0) ; réédition, Paris, J'ai lu no 8568, 2008  (ISBN 978-2-290-00393-0)
 The Seduction of Water (2003)
 The Drowning Tree (2004)
 The Ghost Orchid (2006)
@@ -570,57 +668,206 @@
 The Sea of Lost Girls (2020)
 The Stranger Behind You (2021)
 The Disinvited Guest (2022)
-The Bones of the Story (2023)
-Romans signés Lee Carroll
-Coécrit avec Lee Slonimsky
-Série Black Swan Rising
-Black Swan Rising (2010)
+The Bones of the Story (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Lee Carroll</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coécrit avec Lee Slonimsky
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans signés Lee Carroll</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Black Swan Rising</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Black Swan Rising (2010)
 The Watchtower (2011)
-The Shapestealer (2013)
-Romans signés Juliet Dark
-Série Fairwick Chronicles
-The Demon Lover (2011)
+The Shapestealer (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans signés Juliet Dark</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Fairwick Chronicles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Demon Lover (2011)
 The Water Witch (2013)
 The Angel Stone (2013)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Carol_Goodman</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Hammett 2003 du meilleur roman pour adolescents  pour The Seduction of Water[2]
-Prix Mary Higgins Clark 2018 pour The Widow’s House[3]
-Prix Mary Higgins Clark 2020 pour The Night Visitors[3]
-Nominations
-Prix Mary Higgins Clark 2005 pour The Drowning Tree[3]
-Prix Nero 2005 pour The Drowning Tree[4]
-Prix Mary Higgins Clark 2018 pour The Widow’s House[3]
-Prix Mary-Higgins-Clark 2023 pour The Disinvited Guest[5]
-Prix Mary Higgins Clark 2024 pour The Bones of the Story[3]</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Hammett 2003 du meilleur roman pour adolescents  pour The Seduction of Water
+Prix Mary Higgins Clark 2018 pour The Widow’s House
+Prix Mary Higgins Clark 2020 pour The Night Visitors</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carol_Goodman</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Mary Higgins Clark 2005 pour The Drowning Tree
+Prix Nero 2005 pour The Drowning Tree
+Prix Mary Higgins Clark 2018 pour The Widow’s House
+Prix Mary-Higgins-Clark 2023 pour The Disinvited Guest
+Prix Mary Higgins Clark 2024 pour The Bones of the Story</t>
         </is>
       </c>
     </row>
